--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_5.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_24</t>
+          <t>model_14_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9827807773966503</v>
+        <v>0.9787595927467916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7344850369662754</v>
+        <v>0.7920365217440478</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9971640661479926</v>
+        <v>0.9712926074003919</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7391222490755216</v>
+        <v>0.7625438179761778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9441160347555774</v>
+        <v>0.9502581283190129</v>
       </c>
       <c r="G2" t="n">
-        <v>0.115145020835829</v>
+        <v>0.1420347011052875</v>
       </c>
       <c r="H2" t="n">
-        <v>1.775499780390505</v>
+        <v>1.39065273668132</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02701153776981978</v>
+        <v>0.2720111405238439</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6918458676756485</v>
+        <v>0.3261128593046719</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3594287540008548</v>
+        <v>0.2990619999142579</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7320684164410709</v>
+        <v>0.563036959657251</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3393302533459536</v>
+        <v>0.3768749144016983</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00843390494858</v>
+        <v>1.010403464777082</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3537762447413512</v>
+        <v>0.3929192597464017</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3231257886584</v>
+        <v>149.9033677545089</v>
       </c>
       <c r="Q2" t="n">
-        <v>239.3010610040371</v>
+        <v>238.8813029698875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_23</t>
+          <t>model_14_5_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9827646577225431</v>
+        <v>0.9784355755383265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.734424942985394</v>
+        <v>0.7912715225774997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9971699045898857</v>
+        <v>0.9639438372299679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7389178749763972</v>
+        <v>0.7632761800531621</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9440782308631971</v>
+        <v>0.9445509659047973</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1152528131708085</v>
+        <v>0.1442014056702552</v>
       </c>
       <c r="H3" t="n">
-        <v>1.775901629117366</v>
+        <v>1.395768289630524</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02695592811813423</v>
+        <v>0.3416429382765921</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6923878662762882</v>
+        <v>0.3251070624080145</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3596718971972112</v>
+        <v>0.3333750514290282</v>
       </c>
       <c r="L3" t="n">
-        <v>0.733604123846034</v>
+        <v>0.5443283327028409</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3394890472030113</v>
+        <v>0.3797386017647602</v>
       </c>
       <c r="N3" t="n">
-        <v>1.008441800299163</v>
+        <v>1.010562167083269</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3539417987816526</v>
+        <v>0.3959048602091592</v>
       </c>
       <c r="P3" t="n">
-        <v>150.3212543762242</v>
+        <v>149.8730886122376</v>
       </c>
       <c r="Q3" t="n">
-        <v>239.2991895916028</v>
+        <v>238.8510238276162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_22</t>
+          <t>model_14_5_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9827457166385448</v>
+        <v>0.9778081337938215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7343568872383197</v>
+        <v>0.7903818452046769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9971756110727206</v>
+        <v>0.9563647969522963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7386860829286885</v>
+        <v>0.7639877492149296</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9440346686441554</v>
+        <v>0.9386599726023154</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1153794722867207</v>
+        <v>0.1483971115048641</v>
       </c>
       <c r="H4" t="n">
-        <v>1.776356718211419</v>
+        <v>1.401717566319177</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02690157534240978</v>
+        <v>0.4134566142435889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6930025770739667</v>
+        <v>0.3241298216726533</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3599520762081883</v>
+        <v>0.3687933454936473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7353169806501111</v>
+        <v>0.5272761944028546</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3396755397238969</v>
+        <v>0.3852234565870361</v>
       </c>
       <c r="N4" t="n">
-        <v>1.008451077564794</v>
+        <v>1.010869485488741</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3541362306752449</v>
+        <v>0.401623216656434</v>
       </c>
       <c r="P4" t="n">
-        <v>150.3190576477238</v>
+        <v>149.8157268253825</v>
       </c>
       <c r="Q4" t="n">
-        <v>239.2969928631024</v>
+        <v>238.7936620407611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_21</t>
+          <t>model_14_5_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9827234389929728</v>
+        <v>0.9769724733880962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7342797632331947</v>
+        <v>0.7894227724595653</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9971808550655565</v>
+        <v>0.948768067148271</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7384237944682124</v>
+        <v>0.7646631578303082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9439844974796959</v>
+        <v>0.9327509439548723</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1155284430052395</v>
+        <v>0.1539851764858108</v>
       </c>
       <c r="H5" t="n">
-        <v>1.776872446788814</v>
+        <v>1.408130890181863</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02685162766452151</v>
+        <v>0.4854379037694306</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6936981641329486</v>
+        <v>0.3232022423909395</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3602747619562307</v>
+        <v>0.404320073080185</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7372259609789816</v>
+        <v>0.5117535777911441</v>
       </c>
       <c r="M5" t="n">
-        <v>0.339894752835697</v>
+        <v>0.3924094500465182</v>
       </c>
       <c r="N5" t="n">
-        <v>1.008461989064666</v>
+        <v>1.011278788544606</v>
       </c>
       <c r="O5" t="n">
-        <v>0.354364776143048</v>
+        <v>0.4091151327345434</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3164770391033</v>
+        <v>149.7417978755742</v>
       </c>
       <c r="Q5" t="n">
-        <v>239.2944122544819</v>
+        <v>238.7197330909529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_20</t>
+          <t>model_14_5_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9826971595131304</v>
+        <v>0.9760036878529939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7341922346548568</v>
+        <v>0.788435359558476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9971854520038023</v>
+        <v>0.9413158356918871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7381260442451312</v>
+        <v>0.7652952856972809</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9439264945467278</v>
+        <v>0.9269508149468169</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1157041740079518</v>
+        <v>0.160463449819888</v>
       </c>
       <c r="H6" t="n">
-        <v>1.777457750795191</v>
+        <v>1.414733724798066</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02680784301455077</v>
+        <v>0.5560500281852959</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6944877955243121</v>
+        <v>0.3223341031646298</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3606478192694314</v>
+        <v>0.4391920656749629</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7393538623729303</v>
+        <v>0.4976499950299451</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3401531625723209</v>
+        <v>0.4005788933779313</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00847486064663</v>
+        <v>1.011753295745472</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3546341869171419</v>
+        <v>0.4176323661816538</v>
       </c>
       <c r="P6" t="n">
-        <v>150.3134371386115</v>
+        <v>149.6593781786494</v>
       </c>
       <c r="Q6" t="n">
-        <v>239.2913723539901</v>
+        <v>238.637313394028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_19</t>
+          <t>model_14_5_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9826660804345262</v>
+        <v>0.9749595142205472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7340926465884974</v>
+        <v>0.787449322311629</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9971890225967935</v>
+        <v>0.9341254390384304</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7377874418212401</v>
+        <v>0.7658807399118183</v>
       </c>
       <c r="F7" t="n">
-        <v>0.943859330150161</v>
+        <v>0.9213516444646851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.115911999949684</v>
+        <v>0.1674458437080361</v>
       </c>
       <c r="H7" t="n">
-        <v>1.778123696653497</v>
+        <v>1.421327360408015</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02677383403815118</v>
+        <v>0.6241811894441673</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6953857666503427</v>
+        <v>0.3215300636729329</v>
       </c>
       <c r="K7" t="n">
-        <v>0.361079800344247</v>
+        <v>0.4728558395873398</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7417242462875054</v>
+        <v>0.4848420951123743</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3404585142857848</v>
+        <v>0.4092014708038524</v>
       </c>
       <c r="N7" t="n">
-        <v>1.008490083052477</v>
+        <v>1.012264727728712</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3549525380852132</v>
+        <v>0.4266220245797924</v>
       </c>
       <c r="P7" t="n">
-        <v>150.3098479937956</v>
+        <v>149.5741906022852</v>
       </c>
       <c r="Q7" t="n">
-        <v>239.2877832091743</v>
+        <v>238.5521258176639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_18</t>
+          <t>model_14_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9826292500453536</v>
+        <v>0.9738835416864486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7339791596862242</v>
+        <v>0.7864857424506262</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9971910179643603</v>
+        <v>0.9272773940768011</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7374023031247419</v>
+        <v>0.7664182638826194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9437814051831001</v>
+        <v>0.9160168235238744</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1161582849316691</v>
+        <v>0.1746408769979511</v>
       </c>
       <c r="H8" t="n">
-        <v>1.778882584091558</v>
+        <v>1.427770823375419</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02675482867723386</v>
+        <v>0.6890684659151339</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6964071516274444</v>
+        <v>0.3207918496682742</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3615809901523391</v>
+        <v>0.5049302703601795</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7443711497637804</v>
+        <v>0.4732287169571616</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3408200183845854</v>
+        <v>0.4179005587432865</v>
       </c>
       <c r="N8" t="n">
-        <v>1.008508122426766</v>
+        <v>1.012791734684188</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3553294321619164</v>
+        <v>0.4356914507024027</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3056029854427</v>
+        <v>149.4900470900115</v>
       </c>
       <c r="Q8" t="n">
-        <v>239.2835382008213</v>
+        <v>238.4679823053901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_17</t>
+          <t>model_14_5_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9825854160704111</v>
+        <v>0.9728074733446228</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7338495036639827</v>
+        <v>0.785558746841943</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9971909267308749</v>
+        <v>0.9208211875061326</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7369617639608146</v>
+        <v>0.766906817365207</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9436905296666716</v>
+        <v>0.9109851784925633</v>
       </c>
       <c r="G9" t="n">
-        <v>0.116451402923947</v>
+        <v>0.1818365509545797</v>
       </c>
       <c r="H9" t="n">
-        <v>1.779749594509297</v>
+        <v>1.433969647279105</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02675569765262747</v>
+        <v>0.7502429563064702</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6975754582347817</v>
+        <v>0.320120889780972</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3621654739751353</v>
+        <v>0.535181923043721</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7473227273539601</v>
+        <v>0.4627112019873122</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3412497661888532</v>
+        <v>0.4264229718889211</v>
       </c>
       <c r="N9" t="n">
-        <v>1.008529592128778</v>
+        <v>1.013318788565899</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3557774752199125</v>
+        <v>0.4445766806194743</v>
       </c>
       <c r="P9" t="n">
-        <v>150.3005624705763</v>
+        <v>149.4092941341829</v>
       </c>
       <c r="Q9" t="n">
-        <v>239.2784976859549</v>
+        <v>238.3872293495615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_16</t>
+          <t>model_14_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9825331560328113</v>
+        <v>0.9717539745376351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7337010613944519</v>
+        <v>0.7846775189394471</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9971878735662977</v>
+        <v>0.9147830108851903</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7364576539971632</v>
+        <v>0.7673501317725867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9435843225214328</v>
+        <v>0.9062777817775587</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1168008660360119</v>
+        <v>0.1888813023278218</v>
       </c>
       <c r="H10" t="n">
-        <v>1.780742228649163</v>
+        <v>1.439862422320777</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0267847782569715</v>
+        <v>0.8074564877565316</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6989123541332258</v>
+        <v>0.3195120594370771</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3628485661950986</v>
+        <v>0.5634841044535374</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7506218913215653</v>
+        <v>0.4531910212420235</v>
       </c>
       <c r="M10" t="n">
-        <v>0.341761416833457</v>
+        <v>0.434604765652451</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008555188881888</v>
+        <v>1.013834787981567</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3563109078917198</v>
+        <v>0.4531067902821656</v>
       </c>
       <c r="P10" t="n">
-        <v>150.2945695878472</v>
+        <v>149.333272982455</v>
       </c>
       <c r="Q10" t="n">
-        <v>239.2725048032259</v>
+        <v>238.3112081978336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_15</t>
+          <t>model_14_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9824706931382091</v>
+        <v>0.9707389060165608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7335307312115693</v>
+        <v>0.7838475320687621</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9971809633238792</v>
+        <v>0.9091728571933576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7358788075131077</v>
+        <v>0.7677520881539761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9434598723177442</v>
+        <v>0.9019028786457907</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1172185556998323</v>
+        <v>0.1956690702022068</v>
       </c>
       <c r="H11" t="n">
-        <v>1.781881227366398</v>
+        <v>1.445412548346785</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0268505965319476</v>
+        <v>0.8606143737935344</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7004474507315107</v>
+        <v>0.3189600285582285</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3636489922466739</v>
+        <v>0.5897872417461738</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7543054655509326</v>
+        <v>0.4445703259956627</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3423719551888448</v>
+        <v>0.4423449674204588</v>
       </c>
       <c r="N11" t="n">
-        <v>1.008585782952714</v>
+        <v>1.014331964400052</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3569474381288851</v>
+        <v>0.461176508463864</v>
       </c>
       <c r="P11" t="n">
-        <v>150.2874301785749</v>
+        <v>149.2626609281406</v>
       </c>
       <c r="Q11" t="n">
-        <v>239.2653653939535</v>
+        <v>238.2405961435192</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_14</t>
+          <t>model_14_5_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9823958990390728</v>
+        <v>0.9697724162269403</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7333348438796135</v>
+        <v>0.7830715138245117</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9971688712856374</v>
+        <v>0.9039871432885602</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7352135567488616</v>
+        <v>0.7681144121753162</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9433137455406926</v>
+        <v>0.8978579541247201</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1177187041851519</v>
+        <v>0.2021319918756752</v>
       </c>
       <c r="H12" t="n">
-        <v>1.783191126857165</v>
+        <v>1.450601785919324</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02696577007432484</v>
+        <v>0.9097505657615076</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7022116908423702</v>
+        <v>0.3184624271835794</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3645888354588025</v>
+        <v>0.6141064556376761</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7584278145121928</v>
+        <v>0.4367813504559263</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3431015945534965</v>
+        <v>0.4495909161400786</v>
       </c>
       <c r="N12" t="n">
-        <v>1.008622416797189</v>
+        <v>1.014805347154152</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3577081397518518</v>
+        <v>0.4687309322216597</v>
       </c>
       <c r="P12" t="n">
-        <v>150.2789147265579</v>
+        <v>149.1976687396862</v>
       </c>
       <c r="Q12" t="n">
-        <v>239.2568499419365</v>
+        <v>238.1756039550648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_13</t>
+          <t>model_14_5_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9823060053484804</v>
+        <v>0.9688608604759976</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7331089751713437</v>
+        <v>0.7823501958184457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9971500403001505</v>
+        <v>0.8992144268119862</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7344445772936109</v>
+        <v>0.7684412183454974</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9431412811064356</v>
+        <v>0.8941343928627941</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1183198237080654</v>
+        <v>0.2082275693795573</v>
       </c>
       <c r="H13" t="n">
-        <v>1.784701511949395</v>
+        <v>1.455425242747251</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02714513034937556</v>
+        <v>0.954973483436294</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7042510186752625</v>
+        <v>0.3180136046105561</v>
       </c>
       <c r="K13" t="n">
-        <v>0.365698074512319</v>
+        <v>0.6364935440234251</v>
       </c>
       <c r="L13" t="n">
-        <v>0.763039834880244</v>
+        <v>0.4297433313562759</v>
       </c>
       <c r="M13" t="n">
-        <v>0.343976487144202</v>
+        <v>0.4563195912729995</v>
       </c>
       <c r="N13" t="n">
-        <v>1.008666446359928</v>
+        <v>1.015251823440328</v>
       </c>
       <c r="O13" t="n">
-        <v>0.358620278331421</v>
+        <v>0.4757460609852667</v>
       </c>
       <c r="P13" t="n">
-        <v>150.2687279010792</v>
+        <v>149.138247427597</v>
       </c>
       <c r="Q13" t="n">
-        <v>239.2466631164578</v>
+        <v>238.1161826429756</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9821978592963413</v>
+        <v>0.9680073658674982</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7328478341252637</v>
+        <v>0.7816829095105196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9971224747096209</v>
+        <v>0.8948365694628249</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7335551753375529</v>
+        <v>0.7687353185967849</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9429375008341921</v>
+        <v>0.8907182041892399</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1190429968566862</v>
+        <v>0.2139348917565741</v>
       </c>
       <c r="H14" t="n">
-        <v>1.786447763326976</v>
+        <v>1.459887389360924</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02740768548239142</v>
+        <v>0.9964549926490917</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7066097060904248</v>
+        <v>0.317609699043423</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3670087275596115</v>
+        <v>0.6570326227165186</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7682102910813627</v>
+        <v>0.423382671363753</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3450260814151391</v>
+        <v>0.4625309630247191</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008719415854853</v>
+        <v>1.015669861615919</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3597145560034316</v>
+        <v>0.4822218636917691</v>
       </c>
       <c r="P14" t="n">
-        <v>150.2565410660137</v>
+        <v>149.0841671087602</v>
       </c>
       <c r="Q14" t="n">
-        <v>239.2344762813924</v>
+        <v>238.0621023241388</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_11</t>
+          <t>model_14_5_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9820674374989783</v>
+        <v>0.9672130296225724</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7325451182896092</v>
+        <v>0.7810679625784493</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9970838091258971</v>
+        <v>0.8908326946825118</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7325223720287033</v>
+        <v>0.7689983469615528</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9426959469561441</v>
+        <v>0.887593312453304</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1199151280161901</v>
+        <v>0.2192466218839756</v>
       </c>
       <c r="H15" t="n">
-        <v>1.788472025513875</v>
+        <v>1.463999542327248</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02777596518482845</v>
+        <v>1.034392905043214</v>
       </c>
       <c r="J15" t="n">
-        <v>0.709348692833515</v>
+        <v>0.317248466367223</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3685623290091717</v>
+        <v>0.6758203430109628</v>
       </c>
       <c r="L15" t="n">
-        <v>0.774008080417524</v>
+        <v>0.4176424956827766</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3462876376889451</v>
+        <v>0.4682377834860997</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008783295918868</v>
+        <v>1.016058924266495</v>
       </c>
       <c r="O15" t="n">
-        <v>0.361029819339595</v>
+        <v>0.4881716353149376</v>
       </c>
       <c r="P15" t="n">
-        <v>150.2419421059256</v>
+        <v>149.0351161108946</v>
       </c>
       <c r="Q15" t="n">
-        <v>239.2198773213042</v>
+        <v>238.0130513262732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_10</t>
+          <t>model_14_5_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9819097835407876</v>
+        <v>0.9664774066174</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7321932356250938</v>
+        <v>0.7805030761125973</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9970308355340579</v>
+        <v>0.8871794996876325</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7313188049301774</v>
+        <v>0.7692349325042359</v>
       </c>
       <c r="F16" t="n">
-        <v>0.942408588067275</v>
+        <v>0.8847415747118179</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1209693607605406</v>
+        <v>0.2241657363067957</v>
       </c>
       <c r="H16" t="n">
-        <v>1.790825066511761</v>
+        <v>1.467776940725463</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0282805249705776</v>
+        <v>1.069008021468893</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7125405438849545</v>
+        <v>0.3169235492092995</v>
       </c>
       <c r="K16" t="n">
-        <v>0.370410534427766</v>
+        <v>0.6929657853390965</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7805215001593416</v>
+        <v>0.4124646974456342</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3478064990199876</v>
+        <v>0.4734614412038172</v>
       </c>
       <c r="N16" t="n">
-        <v>1.008860514184104</v>
+        <v>1.016419229411886</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3626133417419763</v>
+        <v>0.4936176749561605</v>
       </c>
       <c r="P16" t="n">
-        <v>150.2244359646105</v>
+        <v>148.9907392129742</v>
       </c>
       <c r="Q16" t="n">
-        <v>239.2023711799891</v>
+        <v>237.9686744283529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_9</t>
+          <t>model_14_5_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9817189051314636</v>
+        <v>0.9657988804498426</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7317831941358113</v>
+        <v>0.7799856069828065</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9969599053546537</v>
+        <v>0.8838527338685134</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7299114337118991</v>
+        <v>0.7694479359866955</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9420659157179128</v>
+        <v>0.8821444323228397</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1222457655626047</v>
+        <v>0.2287030439135771</v>
       </c>
       <c r="H17" t="n">
-        <v>1.79356701583866</v>
+        <v>1.471237259179101</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02895611661691945</v>
+        <v>1.100530123713968</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7162728819559514</v>
+        <v>0.3166310187132951</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3726144992864354</v>
+        <v>0.7085805294301765</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7878455097994079</v>
+        <v>0.40779023293876</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3496366193101128</v>
+        <v>0.478229070544208</v>
       </c>
       <c r="N17" t="n">
-        <v>1.008954005649895</v>
+        <v>1.016751568759261</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3645213740417234</v>
+        <v>0.4985882721479251</v>
       </c>
       <c r="P17" t="n">
-        <v>150.2034435775035</v>
+        <v>148.9506617368135</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.1813787928822</v>
+        <v>237.9285969521921</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_8</t>
+          <t>model_14_5_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9814873609874252</v>
+        <v>0.9651750876497692</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7313039693920547</v>
+        <v>0.7795126506337969</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9968662872164472</v>
+        <v>0.8808282387922897</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7282598923875138</v>
+        <v>0.7696387466849917</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9416561044615571</v>
+        <v>0.8797829363427052</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1237941023199522</v>
+        <v>0.2328743492399701</v>
       </c>
       <c r="H18" t="n">
-        <v>1.796771593906787</v>
+        <v>1.474399920462691</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02984780521336448</v>
+        <v>1.129188120163411</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7206527573440306</v>
+        <v>0.3163689669028225</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3752502812786975</v>
+        <v>0.7227785016162218</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7960889901415688</v>
+        <v>0.4035744834785113</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3518438607109014</v>
+        <v>0.482570564000717</v>
       </c>
       <c r="N18" t="n">
-        <v>1.009067415026567</v>
+        <v>1.017057099926644</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3668225822785632</v>
+        <v>0.503114591969008</v>
       </c>
       <c r="P18" t="n">
-        <v>150.178271117278</v>
+        <v>148.9145124890499</v>
       </c>
       <c r="Q18" t="n">
-        <v>239.1562063326566</v>
+        <v>237.8924477044286</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_7</t>
+          <t>model_14_5_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9812060967760631</v>
+        <v>0.9646032321966228</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7307423814098842</v>
+        <v>0.7790812249209391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9967443224950779</v>
+        <v>0.8780822189223314</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7263155669017829</v>
+        <v>0.7698106194322715</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9411649332909603</v>
+        <v>0.8776387076688467</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1256749173964332</v>
+        <v>0.2366983492883125</v>
       </c>
       <c r="H19" t="n">
-        <v>1.800526935329436</v>
+        <v>1.477284866191104</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03100948769602154</v>
+        <v>1.155207480651717</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7258090941644474</v>
+        <v>0.3161329237197211</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3784093456199016</v>
+        <v>0.7356702021857189</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8053878868773068</v>
+        <v>0.3997740280236887</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3545065830085997</v>
+        <v>0.4865165457497952</v>
       </c>
       <c r="N19" t="n">
-        <v>1.009205177089275</v>
+        <v>1.017337192393491</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3695986621770695</v>
+        <v>0.5072285623304527</v>
       </c>
       <c r="P19" t="n">
-        <v>150.1481134533659</v>
+        <v>148.8819374726848</v>
       </c>
       <c r="Q19" t="n">
-        <v>239.1260486687445</v>
+        <v>237.8598726880634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_6</t>
+          <t>model_14_5_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9808638272409227</v>
+        <v>0.9640802574409403</v>
       </c>
       <c r="C20" t="n">
-        <v>0.730082511370945</v>
+        <v>0.7786883294497162</v>
       </c>
       <c r="D20" t="n">
-        <v>0.99658688608163</v>
+        <v>0.8755921991312912</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7240173669095615</v>
+        <v>0.7699645703370108</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9405745605952472</v>
+        <v>0.8756941730263039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1279636753539231</v>
+        <v>0.2401954838876391</v>
       </c>
       <c r="H20" t="n">
-        <v>1.804939489318245</v>
+        <v>1.479912160016289</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03250902888778193</v>
+        <v>1.178801163740059</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7319039035610938</v>
+        <v>0.3159214936810959</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3822064441523368</v>
+        <v>0.7473612865669215</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8158968042581896</v>
+        <v>0.3963435658807884</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3577201075616566</v>
+        <v>0.4900974228534966</v>
       </c>
       <c r="N20" t="n">
-        <v>1.009372819310568</v>
+        <v>1.017593343294233</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3729489931232629</v>
+        <v>0.5109618847858962</v>
       </c>
       <c r="P20" t="n">
-        <v>150.1120176832699</v>
+        <v>148.8526043419599</v>
       </c>
       <c r="Q20" t="n">
-        <v>239.0899528986485</v>
+        <v>237.8305395573385</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_5</t>
+          <t>model_14_5_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9804466524149573</v>
+        <v>0.9636029131949243</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7293051279666816</v>
+        <v>0.7783310548262405</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9963855388693733</v>
+        <v>0.8733362767872628</v>
       </c>
       <c r="E21" t="n">
-        <v>0.721288807523645</v>
+        <v>0.7701029370203188</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9398629228359893</v>
+        <v>0.8739323122216733</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1307533253360673</v>
+        <v>0.2433874870587154</v>
       </c>
       <c r="H21" t="n">
-        <v>1.810137855722076</v>
+        <v>1.48230125706857</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03442680910147373</v>
+        <v>1.200176703423896</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7391400228896464</v>
+        <v>0.3157314663912545</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3867834828787644</v>
+        <v>0.7579540849075752</v>
       </c>
       <c r="L21" t="n">
-        <v>0.827795743444326</v>
+        <v>0.3932524302501161</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3615982927726116</v>
+        <v>0.4933431737226283</v>
       </c>
       <c r="N21" t="n">
-        <v>1.009577149837572</v>
+        <v>1.017827144557588</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3769922807075984</v>
+        <v>0.5143458139891575</v>
       </c>
       <c r="P21" t="n">
-        <v>150.0688854871598</v>
+        <v>148.8262010174238</v>
       </c>
       <c r="Q21" t="n">
-        <v>239.0468207025384</v>
+        <v>237.8041362328025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_4</t>
+          <t>model_14_5_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9799375742081883</v>
+        <v>0.9631680338124563</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7283869388555901</v>
+        <v>0.7780065411153758</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9961298765893576</v>
+        <v>0.8712945985844572</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7180380732725653</v>
+        <v>0.7702265986727829</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9390034456842489</v>
+        <v>0.8723375940529812</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1341575336488214</v>
+        <v>0.246295527491715</v>
       </c>
       <c r="H22" t="n">
-        <v>1.816277790535817</v>
+        <v>1.48447128174737</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03686192631271489</v>
+        <v>1.219522215720104</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7477609461019606</v>
+        <v>0.3155616344048743</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3923113798415357</v>
+        <v>0.767541975123837</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8412914668242341</v>
+        <v>0.3904703476891945</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3662752157173911</v>
+        <v>0.4962817017498378</v>
       </c>
       <c r="N22" t="n">
-        <v>1.009826494265377</v>
+        <v>1.018040146704103</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3818683099447023</v>
+        <v>0.5174094412380769</v>
       </c>
       <c r="P22" t="n">
-        <v>150.0174810905827</v>
+        <v>148.8024462656073</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.9954163059613</v>
+        <v>237.7803814809859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_3</t>
+          <t>model_14_5_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9793154725339933</v>
+        <v>0.9627723028317876</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7272997160968387</v>
+        <v>0.7777120937931126</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9958074317667863</v>
+        <v>0.8694473686346659</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7141484986546339</v>
+        <v>0.7703385329687432</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9379627877471044</v>
+        <v>0.8708947899889561</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1383175304086779</v>
+        <v>0.2489417823816196</v>
       </c>
       <c r="H23" t="n">
-        <v>1.823548054129788</v>
+        <v>1.48644025234715</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03993313000013562</v>
+        <v>1.237025272596799</v>
       </c>
       <c r="J23" t="n">
-        <v>0.758076069246406</v>
+        <v>0.3154079083026571</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3990045767908393</v>
+        <v>0.7762165153912208</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8566292187109441</v>
+        <v>0.3879603841387608</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3719106484206629</v>
+        <v>0.498940660180767</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010131197126207</v>
+        <v>1.018233974123206</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3877436546851064</v>
+        <v>0.5201815970342135</v>
       </c>
       <c r="P23" t="n">
-        <v>149.9564065839095</v>
+        <v>148.7810724311011</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.9343417992882</v>
+        <v>237.7590076464797</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_2</t>
+          <t>model_14_5_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9785542324216578</v>
+        <v>0.9624128469005688</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7260092015254644</v>
+        <v>0.7774452458810244</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9954031223850792</v>
+        <v>0.8677780938548867</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7094739852517047</v>
+        <v>0.7704387778852579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9366996870341562</v>
+        <v>0.8695908662553347</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1434079465450536</v>
+        <v>0.2513454658488222</v>
       </c>
       <c r="H24" t="n">
-        <v>1.83217773101084</v>
+        <v>1.488224665564005</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04378407247784641</v>
+        <v>1.252842150953827</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7704728442483004</v>
+        <v>0.3152702359284247</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4071284583630734</v>
+        <v>0.7840560683942399</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8740931787619886</v>
+        <v>0.3857008308891799</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3786924168042629</v>
+        <v>0.5013436604254832</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010504049426127</v>
+        <v>1.01841003417115</v>
       </c>
       <c r="O24" t="n">
-        <v>0.394814136988992</v>
+        <v>0.5226868979742435</v>
       </c>
       <c r="P24" t="n">
-        <v>149.884123874229</v>
+        <v>148.7618538563987</v>
       </c>
       <c r="Q24" t="n">
-        <v>238.8620590896077</v>
+        <v>237.7397890717773</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_1</t>
+          <t>model_14_5_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9776215397321959</v>
+        <v>0.9620865290116536</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7244738259331699</v>
+        <v>0.7772035439897182</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9948990167996686</v>
+        <v>0.8662696559655366</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7038317420840865</v>
+        <v>0.7705285735666362</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9351631862901618</v>
+        <v>0.8684124587456655</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1496448668541411</v>
+        <v>0.2535275550745538</v>
       </c>
       <c r="H25" t="n">
-        <v>1.842444794666269</v>
+        <v>1.489840927224104</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04858554803083068</v>
+        <v>1.267135051615835</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7854360314350369</v>
+        <v>0.3151469141173946</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4170107662043268</v>
+        <v>0.7911409828666148</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8940307757979966</v>
+        <v>0.3836636607211018</v>
       </c>
       <c r="M25" t="n">
-        <v>0.386839588013095</v>
+        <v>0.5035151984543801</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010960878498516</v>
+        <v>1.018569863341231</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4033081501431536</v>
+        <v>0.5249508828727339</v>
       </c>
       <c r="P25" t="n">
-        <v>149.7989806925596</v>
+        <v>148.7445655266784</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.7769159079382</v>
+        <v>237.722500742057</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_0</t>
+          <t>model_14_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9764773300247174</v>
+        <v>0.9617906405650394</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7226431497274379</v>
+        <v>0.7769847759003776</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9942735505195127</v>
+        <v>0.8649074600247194</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6969899778026778</v>
+        <v>0.7706089633117199</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9332895067255422</v>
+        <v>0.8673482428624629</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1572962024366508</v>
+        <v>0.2555061624795043</v>
       </c>
       <c r="H26" t="n">
-        <v>1.854686534883487</v>
+        <v>1.491303830444859</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05454295286882533</v>
+        <v>1.280042266027349</v>
       </c>
       <c r="J26" t="n">
-        <v>0.803580339751593</v>
+        <v>0.3150365100445059</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4290617061897516</v>
+        <v>0.7975393454455755</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9168305999931095</v>
+        <v>0.3818314435779785</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3966058527513818</v>
+        <v>0.5054761739978496</v>
       </c>
       <c r="N26" t="n">
-        <v>1.011521307742996</v>
+        <v>1.018714788294675</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4134901849903043</v>
+        <v>0.5269953412048678</v>
       </c>
       <c r="P26" t="n">
-        <v>149.6992492227588</v>
+        <v>148.7290175006714</v>
       </c>
       <c r="Q26" t="n">
-        <v>238.6771844381374</v>
+        <v>237.70695271605</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_5.xlsx
@@ -518,551 +518,551 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_0</t>
+          <t>model_14_5_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9787595927467916</v>
+        <v>0.9591116459930321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7920365217440478</v>
+        <v>0.7611390382754327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9712926074003919</v>
+        <v>0.8886897088803388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7625438179761778</v>
+        <v>0.9889567314060934</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9502581283190129</v>
+        <v>0.9499049913161192</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1420347011052875</v>
+        <v>0.2734206115181527</v>
       </c>
       <c r="H2" t="n">
-        <v>1.39065273668132</v>
+        <v>1.597264350905778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2720111405238439</v>
+        <v>1.239688753666198</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3261128593046719</v>
+        <v>0.1324797924756068</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2990619999142579</v>
+        <v>0.6860842730709025</v>
       </c>
       <c r="L2" t="n">
-        <v>0.563036959657251</v>
+        <v>0.9777419337702818</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3768749144016983</v>
+        <v>0.5228963678571048</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010403464777082</v>
+        <v>1.020026948901372</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3929192597464017</v>
+        <v>0.5451571487814842</v>
       </c>
       <c r="P2" t="n">
-        <v>149.9033677545089</v>
+        <v>148.5934879358568</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.8813029698875</v>
+        <v>237.5714231512355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_1</t>
+          <t>model_14_5_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9784355755383265</v>
+        <v>0.9583393254056275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7912715225774997</v>
+        <v>0.7611352502464432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9639438372299679</v>
+        <v>0.8908210151776105</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7632761800531621</v>
+        <v>0.9908272565317795</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9445509659047973</v>
+        <v>0.9515907981729858</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1442014056702552</v>
+        <v>0.2785851228423368</v>
       </c>
       <c r="H3" t="n">
-        <v>1.395768289630524</v>
+        <v>1.597289681473073</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3416429382765921</v>
+        <v>1.215951896806258</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3251070624080145</v>
+        <v>0.1100401697892554</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3333750514290282</v>
+        <v>0.6629960332977569</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5443283327028409</v>
+        <v>0.9106446553894192</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3797386017647602</v>
+        <v>0.5278116357587589</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010562167083269</v>
+        <v>1.020405228372754</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3959048602091592</v>
+        <v>0.550281669813719</v>
       </c>
       <c r="P3" t="n">
-        <v>149.8730886122376</v>
+        <v>148.5560632375334</v>
       </c>
       <c r="Q3" t="n">
-        <v>238.8510238276162</v>
+        <v>237.533998452912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_2</t>
+          <t>model_14_5_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9778081337938215</v>
+        <v>0.9595601293614443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7903818452046769</v>
+        <v>0.7609222940705747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9563647969522963</v>
+        <v>0.8866629694066408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7639877492149296</v>
+        <v>0.9870949501513387</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9386599726023154</v>
+        <v>0.9482655305384367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1483971115048641</v>
+        <v>0.2704216011685047</v>
       </c>
       <c r="H4" t="n">
-        <v>1.401717566319177</v>
+        <v>1.598713720401679</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4134566142435889</v>
+        <v>1.262261025348192</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3241298216726533</v>
+        <v>0.1548145199312953</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3687933454936473</v>
+        <v>0.7085377726397434</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5272761944028546</v>
+        <v>1.038478362691724</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3852234565870361</v>
+        <v>0.5200207699395331</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010869485488741</v>
+        <v>1.019807283578068</v>
       </c>
       <c r="O4" t="n">
-        <v>0.401623216656434</v>
+        <v>0.5421591307072531</v>
       </c>
       <c r="P4" t="n">
-        <v>149.8157268253825</v>
+        <v>148.6155461040517</v>
       </c>
       <c r="Q4" t="n">
-        <v>238.7936620407611</v>
+        <v>237.5934813194303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_3</t>
+          <t>model_14_5_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9769724733880962</v>
+        <v>0.9571440615567199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7894227724595653</v>
+        <v>0.7608301093878567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.948768067148271</v>
+        <v>0.8930385961013508</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7646631578303082</v>
+        <v>0.9926648158311994</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9327509439548723</v>
+        <v>0.9532972461831728</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1539851764858108</v>
+        <v>0.2865778577036655</v>
       </c>
       <c r="H5" t="n">
-        <v>1.408130890181863</v>
+        <v>1.599330159799486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4854379037694306</v>
+        <v>1.191254179247059</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3232022423909395</v>
+        <v>0.08799601931164272</v>
       </c>
       <c r="K5" t="n">
-        <v>0.404320073080185</v>
+        <v>0.6396250992793509</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5117535777911441</v>
+        <v>0.8363534270199557</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3924094500465182</v>
+        <v>0.5353296719813553</v>
       </c>
       <c r="N5" t="n">
-        <v>1.011278788544606</v>
+        <v>1.020990663727321</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4091151327345434</v>
+        <v>0.5581197644027917</v>
       </c>
       <c r="P5" t="n">
-        <v>149.7417978755742</v>
+        <v>148.4994900502167</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.7197330909529</v>
+        <v>237.4774252655954</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_4</t>
+          <t>model_14_5_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9760036878529939</v>
+        <v>0.9597634683999261</v>
       </c>
       <c r="C6" t="n">
-        <v>0.788435359558476</v>
+        <v>0.7605478676386436</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9413158356918871</v>
+        <v>0.884752513285771</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7652952856972809</v>
+        <v>0.9852726656579406</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9269508149468169</v>
+        <v>0.9466906484245355</v>
       </c>
       <c r="G6" t="n">
-        <v>0.160463449819888</v>
+        <v>0.2690618720818861</v>
       </c>
       <c r="H6" t="n">
-        <v>1.414733724798066</v>
+        <v>1.601217511676078</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5560500281852959</v>
+        <v>1.283538222124804</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3223341031646298</v>
+        <v>0.1766754272762557</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4391920656749629</v>
+        <v>0.7301068247005299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4976499950299451</v>
+        <v>1.093510219761121</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4005788933779313</v>
+        <v>0.5187117427645976</v>
       </c>
       <c r="N6" t="n">
-        <v>1.011753295745472</v>
+        <v>1.019707688946975</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4176323661816538</v>
+        <v>0.5407943755354209</v>
       </c>
       <c r="P6" t="n">
-        <v>149.6593781786494</v>
+        <v>148.6256278361773</v>
       </c>
       <c r="Q6" t="n">
-        <v>238.637313394028</v>
+        <v>237.603563051556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_5</t>
+          <t>model_14_5_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9749595142205472</v>
+        <v>0.9554005188199175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.787449322311629</v>
+        <v>0.7601199263972553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9341254390384304</v>
+        <v>0.8953140195876301</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7658807399118183</v>
+        <v>0.9944123235976515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9213516444646851</v>
+        <v>0.9549877734320562</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1674458437080361</v>
+        <v>0.2982369360129393</v>
       </c>
       <c r="H7" t="n">
-        <v>1.421327360408015</v>
+        <v>1.604079156727729</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6241811894441673</v>
+        <v>1.165912255536375</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3215300636729329</v>
+        <v>0.06703216569525632</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4728558395873398</v>
+        <v>0.6164722106158158</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4848420951123743</v>
+        <v>0.7538479388858103</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4092014708038524</v>
+        <v>0.5461107360352287</v>
       </c>
       <c r="N7" t="n">
-        <v>1.012264727728712</v>
+        <v>1.021844643843306</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4266220245797924</v>
+        <v>0.5693598006733177</v>
       </c>
       <c r="P7" t="n">
-        <v>149.5741906022852</v>
+        <v>148.4197340421989</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.5521258176639</v>
+        <v>237.3976692575775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_6</t>
+          <t>model_14_5_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9738835416864486</v>
+        <v>0.9597832953453709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7864857424506262</v>
+        <v>0.7600645773744523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9272773940768011</v>
+        <v>0.8829633970789046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7664182638826194</v>
+        <v>0.9835112474909219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9160168235238744</v>
+        <v>0.9451917600706399</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1746408769979511</v>
+        <v>0.2689292892064027</v>
       </c>
       <c r="H8" t="n">
-        <v>1.427770823375419</v>
+        <v>1.604449275898072</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6890684659151339</v>
+        <v>1.303464027891225</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3207918496682742</v>
+        <v>0.1978061560315232</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5049302703601795</v>
+        <v>0.750635091961374</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4732287169571616</v>
+        <v>1.143426713437341</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4179005587432865</v>
+        <v>0.5185839268685472</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012791734684188</v>
+        <v>1.019697977790022</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4356914507024027</v>
+        <v>0.5406611182520601</v>
       </c>
       <c r="P8" t="n">
-        <v>149.4900470900115</v>
+        <v>148.6266135986783</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.4679823053901</v>
+        <v>237.604548814057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_7</t>
+          <t>model_14_5_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9728074733446228</v>
+        <v>0.9596683573673106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.785558746841943</v>
+        <v>0.75951017321674</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9208211875061326</v>
+        <v>0.8812971722119214</v>
       </c>
       <c r="E9" t="n">
-        <v>0.766906817365207</v>
+        <v>0.9818257167020215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9109851784925633</v>
+        <v>0.9437760749708943</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1818365509545797</v>
+        <v>0.2696978799949321</v>
       </c>
       <c r="H9" t="n">
-        <v>1.433969647279105</v>
+        <v>1.608156579053491</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7502429563064702</v>
+        <v>1.322021164054471</v>
       </c>
       <c r="J9" t="n">
-        <v>0.320120889780972</v>
+        <v>0.2180265072097955</v>
       </c>
       <c r="K9" t="n">
-        <v>0.535181923043721</v>
+        <v>0.7700238356321329</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4627112019873122</v>
+        <v>1.188721598837031</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4264229718889211</v>
+        <v>0.5193244457898473</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013318788565899</v>
+        <v>1.019754273942542</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4445766806194743</v>
+        <v>0.5414331625969255</v>
       </c>
       <c r="P9" t="n">
-        <v>149.4092941341829</v>
+        <v>148.620905818944</v>
       </c>
       <c r="Q9" t="n">
-        <v>238.3872293495615</v>
+        <v>237.5988410343226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_8</t>
+          <t>model_14_5_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9717539745376351</v>
+        <v>0.9594568829578388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7846775189394471</v>
+        <v>0.7589136662836454</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9147830108851903</v>
+        <v>0.8797527456961516</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7673501317725867</v>
+        <v>0.9802259709704696</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9062777817775587</v>
+        <v>0.9424474835522542</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1888813023278218</v>
+        <v>0.2711120103448204</v>
       </c>
       <c r="H10" t="n">
-        <v>1.439862422320777</v>
+        <v>1.612145423661756</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8074564877565316</v>
+        <v>1.339221803485065</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3195120594370771</v>
+        <v>0.2372177440005647</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5634841044535374</v>
+        <v>0.7882197737428147</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4531910212420235</v>
+        <v>1.229819536226433</v>
       </c>
       <c r="M10" t="n">
-        <v>0.434604765652451</v>
+        <v>0.5206841752394827</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013834787981567</v>
+        <v>1.01985785324514</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4531067902821656</v>
+        <v>0.5428507785442599</v>
       </c>
       <c r="P10" t="n">
-        <v>149.333272982455</v>
+        <v>148.6104464423819</v>
       </c>
       <c r="Q10" t="n">
-        <v>238.3112081978336</v>
+        <v>237.5883816577606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_5_9</t>
+          <t>model_14_5_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9707389060165608</v>
+        <v>0.9529501286562503</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7838475320687621</v>
+        <v>0.7588714842960932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9091728571933576</v>
+        <v>0.8976046633500652</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7677520881539761</v>
+        <v>0.9959922831522126</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9019028786457907</v>
+        <v>0.9566111090177718</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1956690702022068</v>
+        <v>0.3146227063203915</v>
       </c>
       <c r="H11" t="n">
-        <v>1.445412548346785</v>
+        <v>1.612427494806748</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8606143737935344</v>
+        <v>1.140400820049305</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3189600285582285</v>
+        <v>0.04807829238064817</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5897872417461738</v>
+        <v>0.5942395562149764</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4445703259956627</v>
+        <v>0.6623804670190836</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4423449674204588</v>
+        <v>0.5609123873836194</v>
       </c>
       <c r="N11" t="n">
-        <v>1.014331964400052</v>
+        <v>1.023044834943877</v>
       </c>
       <c r="O11" t="n">
-        <v>0.461176508463864</v>
+        <v>0.5847915889632517</v>
       </c>
       <c r="P11" t="n">
-        <v>149.2626609281406</v>
+        <v>148.3127622315092</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.2405961435192</v>
+        <v>237.2906974468879</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9697724162269403</v>
+        <v>0.9591785272425215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7830715138245117</v>
+        <v>0.7582970460807854</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9039871432885602</v>
+        <v>0.878326439949661</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7681144121753162</v>
+        <v>0.9787177579128825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8978579541247201</v>
+        <v>0.9412070077729197</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2021319918756752</v>
+        <v>0.2729733762948575</v>
       </c>
       <c r="H12" t="n">
-        <v>1.450601785919324</v>
+        <v>1.616268765797556</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9097505657615076</v>
+        <v>1.355106904273392</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3184624271835794</v>
+        <v>0.2553109155266459</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6141064556376761</v>
+        <v>0.8052089099000187</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4367813504559263</v>
+        <v>1.267108599168052</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4495909161400786</v>
+        <v>0.5224685409619009</v>
       </c>
       <c r="N12" t="n">
-        <v>1.014805347154152</v>
+        <v>1.019994190738357</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4687309322216597</v>
+        <v>0.5447111084096276</v>
       </c>
       <c r="P12" t="n">
-        <v>149.1976687396862</v>
+        <v>148.5967620225646</v>
       </c>
       <c r="Q12" t="n">
-        <v>238.1756039550648</v>
+        <v>237.5746972379432</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9688608604759976</v>
+        <v>0.9588563676655386</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7823501958184457</v>
+        <v>0.7576769677306247</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8992144268119862</v>
+        <v>0.8770134893333648</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7684412183454974</v>
+        <v>0.9773039420687515</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8941343928627941</v>
+        <v>0.9400539645044497</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2082275693795573</v>
+        <v>0.2751276588695505</v>
       </c>
       <c r="H13" t="n">
-        <v>1.455425242747251</v>
+        <v>1.620415232580279</v>
       </c>
       <c r="I13" t="n">
-        <v>0.954973483436294</v>
+        <v>1.369729542456879</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3180136046105561</v>
+        <v>0.272271657542154</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6364935440234251</v>
+        <v>0.8210005999995167</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4297433313562759</v>
+        <v>1.30093337278461</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4563195912729995</v>
+        <v>0.5245261279188583</v>
       </c>
       <c r="N13" t="n">
-        <v>1.015251823440328</v>
+        <v>1.020151983184226</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4757460609852667</v>
+        <v>0.5468562911031349</v>
       </c>
       <c r="P13" t="n">
-        <v>149.138247427597</v>
+        <v>148.581040149917</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.1161826429756</v>
+        <v>237.5589753652956</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9680073658674982</v>
+        <v>0.9585081285061875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7816829095105196</v>
+        <v>0.7570657447111249</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8948365694628249</v>
+        <v>0.8758081620150706</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7687353185967849</v>
+        <v>0.9759850586007992</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8907182041892399</v>
+        <v>0.9389862575824862</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2139348917565741</v>
+        <v>0.2774563357316253</v>
       </c>
       <c r="H14" t="n">
-        <v>1.459887389360924</v>
+        <v>1.624502483726097</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9964549926490917</v>
+        <v>1.383153554791638</v>
       </c>
       <c r="J14" t="n">
-        <v>0.317609699043423</v>
+        <v>0.2880935500052446</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6570326227165186</v>
+        <v>0.8356235523984414</v>
       </c>
       <c r="L14" t="n">
-        <v>0.423382671363753</v>
+        <v>1.331594039063162</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4625309630247191</v>
+        <v>0.5267412417227507</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015669861615919</v>
+        <v>1.020322549303092</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4822218636917691</v>
+        <v>0.5491657068875767</v>
       </c>
       <c r="P14" t="n">
-        <v>149.0841671087602</v>
+        <v>148.5641834137822</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.0621023241388</v>
+        <v>237.5421186291609</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9672130296225724</v>
+        <v>0.9581472408209377</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7810679625784493</v>
+        <v>0.7564722158248247</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8908326946825118</v>
+        <v>0.8747042618781096</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7689983469615528</v>
+        <v>0.9747597453258277</v>
       </c>
       <c r="F15" t="n">
-        <v>0.887593312453304</v>
+        <v>0.9380007710955905</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2192466218839756</v>
+        <v>0.2798695933446256</v>
       </c>
       <c r="H15" t="n">
-        <v>1.463999542327248</v>
+        <v>1.628471414121736</v>
       </c>
       <c r="I15" t="n">
-        <v>1.034392905043214</v>
+        <v>1.395447948878615</v>
       </c>
       <c r="J15" t="n">
-        <v>0.317248466367223</v>
+        <v>0.302792934250541</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6758203430109628</v>
+        <v>0.8491204415645781</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4176424956827766</v>
+        <v>1.359386924858956</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4682377834860997</v>
+        <v>0.5290270251552615</v>
       </c>
       <c r="N15" t="n">
-        <v>1.016058924266495</v>
+        <v>1.020499310618316</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4881716353149376</v>
+        <v>0.5515488008530335</v>
       </c>
       <c r="P15" t="n">
-        <v>149.0351161108946</v>
+        <v>148.5468630447149</v>
       </c>
       <c r="Q15" t="n">
-        <v>238.0130513262732</v>
+        <v>237.5247982600935</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9664774066174</v>
+        <v>0.9577838020329044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7805030761125973</v>
+        <v>0.7559025537192094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8871794996876325</v>
+        <v>0.8736953522178028</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7692349325042359</v>
+        <v>0.9736253356973988</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8847415747118179</v>
+        <v>0.9370937200450097</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2241657363067957</v>
+        <v>0.2822999101936863</v>
       </c>
       <c r="H16" t="n">
-        <v>1.467776940725463</v>
+        <v>1.632280747245037</v>
       </c>
       <c r="I16" t="n">
-        <v>1.069008021468893</v>
+        <v>1.406684411803708</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3169235492092995</v>
+        <v>0.316401799314232</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6929657853390965</v>
+        <v>0.8615431055589698</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4124646974456342</v>
+        <v>1.384565884642213</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4734614412038172</v>
+        <v>0.5313190286388079</v>
       </c>
       <c r="N16" t="n">
-        <v>1.016419229411886</v>
+        <v>1.020677321453271</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4936176749561605</v>
+        <v>0.5539383796699757</v>
       </c>
       <c r="P16" t="n">
-        <v>148.9907392129742</v>
+        <v>148.5295705236928</v>
       </c>
       <c r="Q16" t="n">
-        <v>237.9686744283529</v>
+        <v>237.5075057390715</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9657988804498426</v>
+        <v>0.9574252707231681</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7799856069828065</v>
+        <v>0.7553609378376233</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8838527338685134</v>
+        <v>0.8727747425976312</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7694479359866955</v>
+        <v>0.9725784284842577</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8821444323228397</v>
+        <v>0.9362608944994089</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2287030439135771</v>
+        <v>0.2846974107127779</v>
       </c>
       <c r="H17" t="n">
-        <v>1.471237259179101</v>
+        <v>1.635902535139116</v>
       </c>
       <c r="I17" t="n">
-        <v>1.100530123713968</v>
+        <v>1.416937456523686</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3166310187132951</v>
+        <v>0.3289609478270814</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7085805294301765</v>
+        <v>0.8729492021753835</v>
       </c>
       <c r="L17" t="n">
-        <v>0.40779023293876</v>
+        <v>1.40736625380212</v>
       </c>
       <c r="M17" t="n">
-        <v>0.478229070544208</v>
+        <v>0.5335704365056013</v>
       </c>
       <c r="N17" t="n">
-        <v>1.016751568759261</v>
+        <v>1.020852928625387</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4985882721479251</v>
+        <v>0.5562856346307153</v>
       </c>
       <c r="P17" t="n">
-        <v>148.9506617368135</v>
+        <v>148.5126567590626</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.9285969521921</v>
+        <v>237.4905919744412</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9651750876497692</v>
+        <v>0.957077054107611</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7795126506337969</v>
+        <v>0.754849871684675</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8808282387922897</v>
+        <v>0.8719361136470167</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7696387466849917</v>
+        <v>0.9716149503163689</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8797829363427052</v>
+        <v>0.9354979410288244</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2328743492399701</v>
+        <v>0.2870259368243975</v>
       </c>
       <c r="H18" t="n">
-        <v>1.474399920462691</v>
+        <v>1.639320036857125</v>
       </c>
       <c r="I18" t="n">
-        <v>1.129188120163411</v>
+        <v>1.426277463347116</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3163689669028225</v>
+        <v>0.3405192456853004</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7227785016162218</v>
+        <v>0.8833983545162085</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4035744834785113</v>
+        <v>1.428004423476678</v>
       </c>
       <c r="M18" t="n">
-        <v>0.482570564000717</v>
+        <v>0.5357480161646868</v>
       </c>
       <c r="N18" t="n">
-        <v>1.017057099926644</v>
+        <v>1.021023483702395</v>
       </c>
       <c r="O18" t="n">
-        <v>0.503114591969008</v>
+        <v>0.5585559183640995</v>
       </c>
       <c r="P18" t="n">
-        <v>148.9145124890499</v>
+        <v>148.4963653901908</v>
       </c>
       <c r="Q18" t="n">
-        <v>237.8924477044286</v>
+        <v>237.4743006055694</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9646032321966228</v>
+        <v>0.9567428156066925</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7790812249209391</v>
+        <v>0.7543706555040122</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8780822189223314</v>
+        <v>0.8711728753249346</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7698106194322715</v>
+        <v>0.9707304115338409</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8776387076688467</v>
+        <v>0.9348002138292414</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2366983492883125</v>
+        <v>0.2892609912190668</v>
       </c>
       <c r="H19" t="n">
-        <v>1.477284866191104</v>
+        <v>1.642524557663805</v>
       </c>
       <c r="I19" t="n">
-        <v>1.155207480651717</v>
+        <v>1.434777827102658</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3161329237197211</v>
+        <v>0.351130552776989</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7356702021857189</v>
+        <v>0.8929541899398235</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3997740280236887</v>
+        <v>1.446671590028103</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4865165457497952</v>
+        <v>0.537829890596522</v>
       </c>
       <c r="N19" t="n">
-        <v>1.017337192393491</v>
+        <v>1.021187192355906</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5072285623304527</v>
+        <v>0.560726422500572</v>
       </c>
       <c r="P19" t="n">
-        <v>148.8819374726848</v>
+        <v>148.4808518292031</v>
       </c>
       <c r="Q19" t="n">
-        <v>237.8598726880634</v>
+        <v>237.4587870445817</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9640802574409403</v>
+        <v>0.9564252001981767</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7786883294497162</v>
+        <v>0.7539237371661061</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8755921991312912</v>
+        <v>0.8704796431633891</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7699645703370108</v>
+        <v>0.9699200254041375</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8756941730263039</v>
+        <v>0.934163427171913</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2401954838876391</v>
+        <v>0.2913848869182968</v>
       </c>
       <c r="H20" t="n">
-        <v>1.479912160016289</v>
+        <v>1.645513102647253</v>
       </c>
       <c r="I20" t="n">
-        <v>1.178801163740059</v>
+        <v>1.442498515870094</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3159214936810959</v>
+        <v>0.3608522928012647</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7473612865669215</v>
+        <v>0.9016754043356794</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3963435658807884</v>
+        <v>1.463555470789693</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4900974228534966</v>
+        <v>0.5398007844735841</v>
       </c>
       <c r="N20" t="n">
-        <v>1.017593343294233</v>
+        <v>1.021342759086607</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5109618847858962</v>
+        <v>0.5627812214102935</v>
       </c>
       <c r="P20" t="n">
-        <v>148.8526043419599</v>
+        <v>148.4662205005287</v>
       </c>
       <c r="Q20" t="n">
-        <v>237.8305395573385</v>
+        <v>237.4441557159074</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9636029131949243</v>
+        <v>0.9561255739214064</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7783310548262405</v>
+        <v>0.7535087358995018</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8733362767872628</v>
+        <v>0.8698501403225271</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7701029370203188</v>
+        <v>0.9691790083772891</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8739323122216733</v>
+        <v>0.9335829338860825</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2433874870587154</v>
+        <v>0.2933884892107117</v>
       </c>
       <c r="H21" t="n">
-        <v>1.48230125706857</v>
+        <v>1.64828821802794</v>
       </c>
       <c r="I21" t="n">
-        <v>1.200176703423896</v>
+        <v>1.449509436283362</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3157314663912545</v>
+        <v>0.3697418512778137</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7579540849075752</v>
+        <v>0.9096256437805875</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3932524302501161</v>
+        <v>1.478815430594686</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4933431737226283</v>
+        <v>0.5416534770595604</v>
       </c>
       <c r="N21" t="n">
-        <v>1.017827144557588</v>
+        <v>1.021489514814005</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5143458139891575</v>
+        <v>0.5647127869552571</v>
       </c>
       <c r="P21" t="n">
-        <v>148.8262010174238</v>
+        <v>148.4525152929071</v>
       </c>
       <c r="Q21" t="n">
-        <v>237.8041362328025</v>
+        <v>237.4304505082857</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9631680338124563</v>
+        <v>0.955844808078253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7780065411153758</v>
+        <v>0.7531248551070719</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8712945985844572</v>
+        <v>0.8692793351881344</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7702265986727829</v>
+        <v>0.9685025920500512</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8723375940529812</v>
+        <v>0.9330545997399285</v>
       </c>
       <c r="G22" t="n">
-        <v>0.246295527491715</v>
+        <v>0.2952659716966858</v>
       </c>
       <c r="H22" t="n">
-        <v>1.48447128174737</v>
+        <v>1.650855230654527</v>
       </c>
       <c r="I22" t="n">
-        <v>1.219522215720104</v>
+        <v>1.455866626607128</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3155616344048743</v>
+        <v>0.3778564320197002</v>
       </c>
       <c r="K22" t="n">
-        <v>0.767541975123837</v>
+        <v>0.916861529313414</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3904703476891945</v>
+        <v>1.49260085410163</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4962817017498378</v>
+        <v>0.5433838161895197</v>
       </c>
       <c r="N22" t="n">
-        <v>1.018040146704103</v>
+        <v>1.021627032777999</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5174094412380769</v>
+        <v>0.5665167902042746</v>
       </c>
       <c r="P22" t="n">
-        <v>148.8024462656073</v>
+        <v>148.4397574597334</v>
       </c>
       <c r="Q22" t="n">
-        <v>237.7803814809859</v>
+        <v>237.4176926751121</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9627723028317876</v>
+        <v>0.9555830127828553</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7777120937931126</v>
+        <v>0.7527709022775323</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8694473686346659</v>
+        <v>0.8687620204439803</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7703385329687432</v>
+        <v>0.9678858865375329</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8708947899889561</v>
+        <v>0.9325741658570301</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2489417823816196</v>
+        <v>0.2970165980424674</v>
       </c>
       <c r="H23" t="n">
-        <v>1.48644025234715</v>
+        <v>1.653222114855462</v>
       </c>
       <c r="I23" t="n">
-        <v>1.237025272596799</v>
+        <v>1.461628081940526</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3154079083026571</v>
+        <v>0.3852546961859863</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7762165153912208</v>
+        <v>0.9234413890632561</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3879603841387608</v>
+        <v>1.505062472003727</v>
       </c>
       <c r="M23" t="n">
-        <v>0.498940660180767</v>
+        <v>0.5449922917275688</v>
       </c>
       <c r="N23" t="n">
-        <v>1.018233974123206</v>
+        <v>1.021755259045132</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5201815970342135</v>
+        <v>0.5681937418759818</v>
       </c>
       <c r="P23" t="n">
-        <v>148.7810724311011</v>
+        <v>148.4279345121522</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.7590076464797</v>
+        <v>237.4058697275308</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9624128469005688</v>
+        <v>0.9553401287757058</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7774452458810244</v>
+        <v>0.7524454708923975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8677780938548867</v>
+        <v>0.868293761603972</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7704387778852579</v>
+        <v>0.9673246061295028</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8695908662553347</v>
+        <v>0.9321379521986113</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2513454658488222</v>
+        <v>0.2986407645166537</v>
       </c>
       <c r="H24" t="n">
-        <v>1.488224665564005</v>
+        <v>1.655398276026331</v>
       </c>
       <c r="I24" t="n">
-        <v>1.252842150953827</v>
+        <v>1.466843190192638</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3152702359284247</v>
+        <v>0.3919880569970677</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7840560683942399</v>
+        <v>0.929415623594853</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3857008308891799</v>
+        <v>1.516304805874784</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5013436604254832</v>
+        <v>0.5464803422966408</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01841003417115</v>
+        <v>1.021874222640471</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5226868979742435</v>
+        <v>0.5697451418384686</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7618538563987</v>
+        <v>148.4170277687699</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.7397890717773</v>
+        <v>237.3949629841485</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9620865290116536</v>
+        <v>0.955115486143895</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7772035439897182</v>
+        <v>0.7521470130777614</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8662696559655366</v>
+        <v>0.867869761263418</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7705285735666362</v>
+        <v>0.9668142065991316</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8684124587456655</v>
+        <v>0.9317420179431096</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2535275550745538</v>
+        <v>0.3001429508299567</v>
       </c>
       <c r="H25" t="n">
-        <v>1.489840927224104</v>
+        <v>1.657394064807075</v>
       </c>
       <c r="I25" t="n">
-        <v>1.267135051615835</v>
+        <v>1.471565381181883</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3151469141173946</v>
+        <v>0.3981110289494593</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7911409828666148</v>
+        <v>0.9348382050656712</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3836636607211018</v>
+        <v>1.526459539706674</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5035151984543801</v>
+        <v>0.5478530376204523</v>
       </c>
       <c r="N25" t="n">
-        <v>1.018569863341231</v>
+        <v>1.021984251684623</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5249508828727339</v>
+        <v>0.5711762756440858</v>
       </c>
       <c r="P25" t="n">
-        <v>148.7445655266784</v>
+        <v>148.4069928301016</v>
       </c>
       <c r="Q25" t="n">
-        <v>237.722500742057</v>
+        <v>237.3849280454803</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9617906405650394</v>
+        <v>0.9549085377215067</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7769847759003776</v>
+        <v>0.7518737994434299</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8649074600247194</v>
+        <v>0.867486577146394</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7706089633117199</v>
+        <v>0.9663505894574886</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8673482428624629</v>
+        <v>0.9313831684778853</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2555061624795043</v>
+        <v>0.3015268158833772</v>
       </c>
       <c r="H26" t="n">
-        <v>1.491303830444859</v>
+        <v>1.659221045637883</v>
       </c>
       <c r="I26" t="n">
-        <v>1.280042266027349</v>
+        <v>1.475832992340562</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3150365100445059</v>
+        <v>0.403672779276431</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7975393454455755</v>
+        <v>0.9397528858084965</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3818314435779785</v>
+        <v>1.535622930013473</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5054761739978496</v>
+        <v>0.5491145744590806</v>
       </c>
       <c r="N26" t="n">
-        <v>1.018714788294675</v>
+        <v>1.022085614177221</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5269953412048678</v>
+        <v>0.5724915187176757</v>
       </c>
       <c r="P26" t="n">
-        <v>148.7290175006714</v>
+        <v>148.3977926503998</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.70695271605</v>
+        <v>237.3757278657784</v>
       </c>
     </row>
   </sheetData>
